--- a/Traduccion/excels/Core/Trad TCE.xlsx
+++ b/Traduccion/excels/Core/Trad TCE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\JAVA\Proyectos\5etoolsEsp\Traduccion\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDADA06-9071-48EE-A851-007CFB178FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F06982-C802-44D6-A8DE-181F95998BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hazard" sheetId="3" r:id="rId1"/>
@@ -955,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF0FF4F-EB35-41D5-8B72-ED53FCB24D07}">
   <dimension ref="B1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4EB65C-048B-4E09-8030-1D102BB3B1AC}">
   <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1323,7 @@
       <c r="B19" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>54</v>
       </c>
     </row>
